--- a/b_list_7.xlsx
+++ b/b_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5848,11 +5848,21 @@
       <c r="C208" t="n">
         <v>94557</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>55356672900</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -5862,13 +5872,29 @@
         <v>1884</v>
       </c>
       <c r="C209" t="n">
-        <v>84339</v>
+        <v>84439</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1827</v>
+      </c>
+      <c r="C210" t="n">
+        <v>134862</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5881,7 +5907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11297,11 +11323,21 @@
       <c r="C208" t="n">
         <v>257861</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>467076</v>
+      </c>
+      <c r="E208" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1564704600</v>
+      </c>
+      <c r="G208" t="n">
+        <v>160185013700</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.9800000190734863</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11311,13 +11347,29 @@
         <v>3670</v>
       </c>
       <c r="C209" t="n">
-        <v>2728567</v>
+        <v>2741246</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3710</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1025212</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11330,7 +11382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16746,11 +16798,21 @@
       <c r="C208" t="n">
         <v>79807</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>17825</v>
+      </c>
+      <c r="E208" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F208" t="n">
+        <v>143491250</v>
+      </c>
+      <c r="G208" t="n">
+        <v>101260515300</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -16760,13 +16822,29 @@
         <v>8070</v>
       </c>
       <c r="C209" t="n">
-        <v>47354</v>
+        <v>47402</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>7900</v>
+      </c>
+      <c r="C210" t="n">
+        <v>59482</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16779,7 +16857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22195,11 +22273,21 @@
       <c r="C208" t="n">
         <v>939189</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>65991</v>
+      </c>
+      <c r="E208" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F208" t="n">
+        <v>137591235</v>
+      </c>
+      <c r="G208" t="n">
+        <v>147874085955</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -22209,7 +22297,7 @@
         <v>2085</v>
       </c>
       <c r="C209" t="n">
-        <v>702450</v>
+        <v>703481</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -22217,6 +22305,22 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1133812</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_7.xlsx
+++ b/b_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5874,11 +5874,21 @@
       <c r="C209" t="n">
         <v>84439</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>54890511444</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -5888,13 +5898,29 @@
         <v>1827</v>
       </c>
       <c r="C210" t="n">
-        <v>134862</v>
+        <v>134865</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1827</v>
+      </c>
+      <c r="C211" t="n">
+        <v>36154</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5907,7 +5933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11349,11 +11375,21 @@
       <c r="C209" t="n">
         <v>2741246</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>267253</v>
+      </c>
+      <c r="E209" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F209" t="n">
+        <v>980818510</v>
+      </c>
+      <c r="G209" t="n">
+        <v>175486268740</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.5600000023841858</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11363,13 +11399,29 @@
         <v>3710</v>
       </c>
       <c r="C210" t="n">
-        <v>1025212</v>
+        <v>1035084</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3705</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1311877</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11382,7 +11434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16824,11 +16876,21 @@
       <c r="C209" t="n">
         <v>47402</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>17825</v>
+      </c>
+      <c r="E209" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F209" t="n">
+        <v>143847750</v>
+      </c>
+      <c r="G209" t="n">
+        <v>101512094220</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -16838,13 +16900,29 @@
         <v>7900</v>
       </c>
       <c r="C210" t="n">
-        <v>59482</v>
+        <v>59635</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>7810</v>
+      </c>
+      <c r="C211" t="n">
+        <v>46136</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16857,7 +16935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22299,11 +22377,21 @@
       <c r="C209" t="n">
         <v>703481</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>147874085955</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -22313,7 +22401,7 @@
         <v>1976</v>
       </c>
       <c r="C210" t="n">
-        <v>1133812</v>
+        <v>1133814</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -22321,6 +22409,22 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
     </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2115</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1019913</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_7.xlsx
+++ b/b_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5900,11 +5900,21 @@
       <c r="C210" t="n">
         <v>134865</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>53229811257</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -5914,13 +5924,159 @@
         <v>1827</v>
       </c>
       <c r="C211" t="n">
-        <v>36154</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>36155</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>53229811257</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C212" t="n">
+        <v>65409</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>52792784892</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C213" t="n">
+        <v>60923</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>53113270893</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C214" t="n">
+        <v>38963</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>53113270893</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C215" t="n">
+        <v>59251</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>53113270893</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C216" t="n">
+        <v>82802</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1818</v>
+      </c>
+      <c r="C217" t="n">
+        <v>38935</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5933,7 +6089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11401,11 +11557,21 @@
       <c r="C210" t="n">
         <v>1035084</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>212112</v>
+      </c>
+      <c r="E210" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F210" t="n">
+        <v>786935520</v>
+      </c>
+      <c r="G210" t="n">
+        <v>177398925620</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.4399999976158142</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11415,13 +11581,159 @@
         <v>3705</v>
       </c>
       <c r="C211" t="n">
-        <v>1311877</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>1320232</v>
+      </c>
+      <c r="D211" t="n">
+        <v>208937</v>
+      </c>
+      <c r="E211" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F211" t="n">
+        <v>774111585</v>
+      </c>
+      <c r="G211" t="n">
+        <v>177159843510</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.4399999976158142</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3625</v>
+      </c>
+      <c r="C212" t="n">
+        <v>579914</v>
+      </c>
+      <c r="D212" t="n">
+        <v>237662</v>
+      </c>
+      <c r="E212" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F212" t="n">
+        <v>861524750</v>
+      </c>
+      <c r="G212" t="n">
+        <v>173334529750</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3660</v>
+      </c>
+      <c r="C213" t="n">
+        <v>347868</v>
+      </c>
+      <c r="D213" t="n">
+        <v>240353</v>
+      </c>
+      <c r="E213" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F213" t="n">
+        <v>879691980</v>
+      </c>
+      <c r="G213" t="n">
+        <v>175008104520</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C214" t="n">
+        <v>364150</v>
+      </c>
+      <c r="D214" t="n">
+        <v>245890</v>
+      </c>
+      <c r="E214" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F214" t="n">
+        <v>892580700</v>
+      </c>
+      <c r="G214" t="n">
+        <v>173573611860</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3640</v>
+      </c>
+      <c r="C215" t="n">
+        <v>325646</v>
+      </c>
+      <c r="D215" t="n">
+        <v>244330</v>
+      </c>
+      <c r="E215" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F215" t="n">
+        <v>889361200</v>
+      </c>
+      <c r="G215" t="n">
+        <v>174051776080</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3615</v>
+      </c>
+      <c r="C216" t="n">
+        <v>316320</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3510</v>
+      </c>
+      <c r="C217" t="n">
+        <v>398939</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11434,7 +11746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16902,11 +17214,21 @@
       <c r="C210" t="n">
         <v>59635</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>17825</v>
+      </c>
+      <c r="E210" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F210" t="n">
+        <v>140817500</v>
+      </c>
+      <c r="G210" t="n">
+        <v>99373673400</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -16916,13 +17238,159 @@
         <v>7810</v>
       </c>
       <c r="C211" t="n">
-        <v>46136</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>46205</v>
+      </c>
+      <c r="D211" t="n">
+        <v>17825</v>
+      </c>
+      <c r="E211" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F211" t="n">
+        <v>139213250</v>
+      </c>
+      <c r="G211" t="n">
+        <v>98241568260</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.1400000005960464</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>7740</v>
+      </c>
+      <c r="C212" t="n">
+        <v>61682</v>
+      </c>
+      <c r="D212" t="n">
+        <v>39820</v>
+      </c>
+      <c r="E212" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F212" t="n">
+        <v>308206800</v>
+      </c>
+      <c r="G212" t="n">
+        <v>97361042040</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8120</v>
+      </c>
+      <c r="C213" t="n">
+        <v>40906</v>
+      </c>
+      <c r="D213" t="n">
+        <v>39820</v>
+      </c>
+      <c r="E213" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F213" t="n">
+        <v>323338400</v>
+      </c>
+      <c r="G213" t="n">
+        <v>102141041520</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8200</v>
+      </c>
+      <c r="C214" t="n">
+        <v>46371</v>
+      </c>
+      <c r="D214" t="n">
+        <v>39820</v>
+      </c>
+      <c r="E214" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F214" t="n">
+        <v>326524000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>103147357200</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>8190</v>
+      </c>
+      <c r="C215" t="n">
+        <v>24622</v>
+      </c>
+      <c r="D215" t="n">
+        <v>39820</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F215" t="n">
+        <v>326125800</v>
+      </c>
+      <c r="G215" t="n">
+        <v>103021567740</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>8670</v>
+      </c>
+      <c r="C216" t="n">
+        <v>174497</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>8540</v>
+      </c>
+      <c r="C217" t="n">
+        <v>53392</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16935,7 +17403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22403,11 +22871,21 @@
       <c r="C210" t="n">
         <v>1133814</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>140143498248</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -22417,13 +22895,159 @@
         <v>2115</v>
       </c>
       <c r="C211" t="n">
-        <v>1019913</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>1021468</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>150001770645</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C212" t="n">
+        <v>794528</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>150356384760</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C213" t="n">
+        <v>993438</v>
+      </c>
+      <c r="D213" t="n">
+        <v>51640</v>
+      </c>
+      <c r="E213" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F213" t="n">
+        <v>108444000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>148937928300</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.07000000029802322</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2085</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1022961</v>
+      </c>
+      <c r="D214" t="n">
+        <v>67064</v>
+      </c>
+      <c r="E214" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F214" t="n">
+        <v>139828440</v>
+      </c>
+      <c r="G214" t="n">
+        <v>147874085955</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2130</v>
+      </c>
+      <c r="C215" t="n">
+        <v>950878</v>
+      </c>
+      <c r="D215" t="n">
+        <v>75146</v>
+      </c>
+      <c r="E215" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F215" t="n">
+        <v>160060980</v>
+      </c>
+      <c r="G215" t="n">
+        <v>151065612990</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2210</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1144056</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C217" t="n">
+        <v>822467</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/b_list_7.xlsx
+++ b/b_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,11 +6056,21 @@
       <c r="C216" t="n">
         <v>82802</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>53200676166</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -6070,13 +6080,29 @@
         <v>1818</v>
       </c>
       <c r="C217" t="n">
-        <v>38935</v>
+        <v>38990</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1808</v>
+      </c>
+      <c r="C218" t="n">
+        <v>100637</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6089,7 +6115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11713,11 +11739,21 @@
       <c r="C216" t="n">
         <v>316320</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>270248</v>
+      </c>
+      <c r="E216" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F216" t="n">
+        <v>976946520</v>
+      </c>
+      <c r="G216" t="n">
+        <v>172856365530</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.5699999928474426</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11727,13 +11763,29 @@
         <v>3510</v>
       </c>
       <c r="C217" t="n">
-        <v>398939</v>
+        <v>402427</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3495</v>
+      </c>
+      <c r="C218" t="n">
+        <v>650885</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11746,7 +11798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17370,11 +17422,21 @@
       <c r="C216" t="n">
         <v>174497</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>40777</v>
+      </c>
+      <c r="E216" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F216" t="n">
+        <v>353536590</v>
+      </c>
+      <c r="G216" t="n">
+        <v>109059461820</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.3199999928474426</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -17384,13 +17446,29 @@
         <v>8540</v>
       </c>
       <c r="C217" t="n">
-        <v>53392</v>
+        <v>53518</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>8330</v>
+      </c>
+      <c r="C218" t="n">
+        <v>44588</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17403,7 +17481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23027,11 +23105,21 @@
       <c r="C216" t="n">
         <v>1144056</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>89023</v>
+      </c>
+      <c r="E216" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F216" t="n">
+        <v>196740830</v>
+      </c>
+      <c r="G216" t="n">
+        <v>156739438830</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.1299999952316284</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -23041,7 +23129,7 @@
         <v>2240</v>
       </c>
       <c r="C217" t="n">
-        <v>822467</v>
+        <v>823568</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -23049,6 +23137,22 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C218" t="n">
+        <v>969720</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_7.xlsx
+++ b/b_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6134,11 +6134,21 @@
       <c r="C219" t="n">
         <v>100638</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>52676244528</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -6148,13 +6158,29 @@
         <v>1771</v>
       </c>
       <c r="C220" t="n">
-        <v>77541</v>
+        <v>77885</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1763</v>
+      </c>
+      <c r="C221" t="n">
+        <v>55801</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6167,7 +6193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11869,11 +11895,21 @@
       <c r="C219" t="n">
         <v>1344222</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>253880</v>
+      </c>
+      <c r="E219" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F219" t="n">
+        <v>887310600</v>
+      </c>
+      <c r="G219" t="n">
+        <v>167118394890</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.5299999713897705</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11883,13 +11919,29 @@
         <v>1623</v>
       </c>
       <c r="C220" t="n">
-        <v>1902717</v>
+        <v>1908693</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1634</v>
+      </c>
+      <c r="C221" t="n">
+        <v>490892</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11902,7 +11954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17604,11 +17656,21 @@
       <c r="C219" t="n">
         <v>44738</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>40643</v>
+      </c>
+      <c r="E219" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F219" t="n">
+        <v>338556190</v>
+      </c>
+      <c r="G219" t="n">
+        <v>104782620180</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.3199999928474426</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -17618,13 +17680,29 @@
         <v>7970</v>
       </c>
       <c r="C220" t="n">
-        <v>76067</v>
+        <v>77222</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>48474</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17637,7 +17715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23339,11 +23417,21 @@
       <c r="C219" t="n">
         <v>971304</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>123710</v>
+      </c>
+      <c r="E219" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F219" t="n">
+        <v>290099950</v>
+      </c>
+      <c r="G219" t="n">
+        <v>166314019935</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.1700000017881393</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -23353,7 +23441,7 @@
         <v>2295</v>
       </c>
       <c r="C220" t="n">
-        <v>981604</v>
+        <v>983601</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -23361,6 +23449,22 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C221" t="n">
+        <v>960898</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_7.xlsx
+++ b/b_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6316,11 +6316,21 @@
       <c r="C226" t="n">
         <v>41140</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>49529654700</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -6337,6 +6347,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1729</v>
+      </c>
+      <c r="C228" t="n">
+        <v>31144</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6349,7 +6375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12233,11 +12259,21 @@
       <c r="C226" t="n">
         <v>348470</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>569868</v>
+      </c>
+      <c r="E226" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F226" t="n">
+        <v>883295400</v>
+      </c>
+      <c r="G226" t="n">
+        <v>74115454100</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.190000057220459</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12247,13 +12283,29 @@
         <v>1563</v>
       </c>
       <c r="C227" t="n">
-        <v>154194</v>
+        <v>154642</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1607</v>
+      </c>
+      <c r="C228" t="n">
+        <v>229349</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12266,7 +12318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18150,11 +18202,21 @@
       <c r="C226" t="n">
         <v>15510</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>41669</v>
+      </c>
+      <c r="E226" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F226" t="n">
+        <v>342102490</v>
+      </c>
+      <c r="G226" t="n">
+        <v>103273146660</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.3300000131130219</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -18164,13 +18226,29 @@
         <v>8200</v>
       </c>
       <c r="C227" t="n">
-        <v>11918</v>
+        <v>11952</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8150</v>
+      </c>
+      <c r="C228" t="n">
+        <v>16475</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18183,7 +18261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24067,11 +24145,21 @@
       <c r="C226" t="n">
         <v>482236</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>146360</v>
+      </c>
+      <c r="E226" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F226" t="n">
+        <v>316137600</v>
+      </c>
+      <c r="G226" t="n">
+        <v>153193297680</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.2099999934434891</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -24081,7 +24169,7 @@
         <v>2250</v>
       </c>
       <c r="C227" t="n">
-        <v>762394</v>
+        <v>762403</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -24089,6 +24177,22 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
     </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2370</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1384470</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_7.xlsx
+++ b/b_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6342,11 +6342,21 @@
       <c r="C227" t="n">
         <v>38159</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>49646195064</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -6363,6 +6373,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1749</v>
+      </c>
+      <c r="C229" t="n">
+        <v>30351</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6375,7 +6401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12285,11 +12311,21 @@
       <c r="C227" t="n">
         <v>154642</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>568270</v>
+      </c>
+      <c r="E227" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F227" t="n">
+        <v>888206010</v>
+      </c>
+      <c r="G227" t="n">
+        <v>74737067586</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.190000057220459</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12299,13 +12335,29 @@
         <v>1607</v>
       </c>
       <c r="C228" t="n">
-        <v>229349</v>
+        <v>230912</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C229" t="n">
+        <v>226103</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12318,7 +12370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18228,11 +18280,21 @@
       <c r="C227" t="n">
         <v>11952</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>41638</v>
+      </c>
+      <c r="E227" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F227" t="n">
+        <v>341431600</v>
+      </c>
+      <c r="G227" t="n">
+        <v>103147357200</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.3300000131130219</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -18242,13 +18304,29 @@
         <v>8150</v>
       </c>
       <c r="C228" t="n">
-        <v>16475</v>
+        <v>16477</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8350</v>
+      </c>
+      <c r="C229" t="n">
+        <v>29650</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18261,7 +18339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24171,11 +24249,21 @@
       <c r="C227" t="n">
         <v>762403</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>146207</v>
+      </c>
+      <c r="E227" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F227" t="n">
+        <v>328965750</v>
+      </c>
+      <c r="G227" t="n">
+        <v>159576351750</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.2099999934434891</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -24185,7 +24273,7 @@
         <v>2370</v>
       </c>
       <c r="C228" t="n">
-        <v>1384470</v>
+        <v>1390070</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -24193,6 +24281,22 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2450</v>
+      </c>
+      <c r="C229" t="n">
+        <v>786599</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
